--- a/data/trans_dic/P33B_R4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R4-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2299244690123226</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3545177540576848</v>
+        <v>0.3545177540576849</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3029831517247951</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1995749168065414</v>
+        <v>0.1981713042642926</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3305578266831511</v>
+        <v>0.328876516416721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2827621360763272</v>
+        <v>0.28043021358786</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.266683279772531</v>
+        <v>0.2657677343987316</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3804552997917777</v>
+        <v>0.3800702217288588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.324040529034897</v>
+        <v>0.3231943980685287</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1059083926050505</v>
+        <v>0.1079524604229679</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1798117670531167</v>
+        <v>0.1788901717955819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1458979000074053</v>
+        <v>0.1466226421410242</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1360737988581332</v>
+        <v>0.1367738628755202</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2104068332872779</v>
+        <v>0.2116984554391204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1682222560594697</v>
+        <v>0.1679071821054869</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0906442701858209</v>
+        <v>0.09496763095334296</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1471805110652673</v>
+        <v>0.144525856356914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1289492926553206</v>
+        <v>0.1272422193570489</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1488450467236204</v>
+        <v>0.1521109463575148</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.196868475061637</v>
+        <v>0.1964965455591808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1665958944278759</v>
+        <v>0.166041362019284</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1274316174258619</v>
+        <v>0.125810612727611</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2128835021305548</v>
+        <v>0.2139443841458202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1752164643624556</v>
+        <v>0.1743866076189563</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1521758270357469</v>
+        <v>0.1502583190110362</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2369535757287704</v>
+        <v>0.2378656954758714</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1921418701427952</v>
+        <v>0.1918969021718633</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>115460</v>
+        <v>114648</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>271110</v>
+        <v>269731</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>395496</v>
+        <v>392235</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>154284</v>
+        <v>153754</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>312034</v>
+        <v>311718</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>453232</v>
+        <v>452048</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>236017</v>
+        <v>240573</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>390442</v>
+        <v>388441</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>641936</v>
+        <v>645125</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>303241</v>
+        <v>304801</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>456876</v>
+        <v>459680</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>740161</v>
+        <v>738774</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64412</v>
+        <v>67484</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>108160</v>
+        <v>106209</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>186393</v>
+        <v>183926</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>105769</v>
+        <v>108090</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>144674</v>
+        <v>144401</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>240811</v>
+        <v>240009</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>448258</v>
+        <v>442556</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>793295</v>
+        <v>797249</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1269279</v>
+        <v>1263268</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>535299</v>
+        <v>528554</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>882991</v>
+        <v>886390</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1391888</v>
+        <v>1390113</v>
       </c>
     </row>
     <row r="20">
